--- a/biology/Zoologie/Aardonyx/Aardonyx.xlsx
+++ b/biology/Zoologie/Aardonyx/Aardonyx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aardonyx celestae
-Aardonyx est un genre éteint de dinosaures appartenant à l'ordre des saurischiens et au sous-ordre des sauropodomorphes. Ces animaux ont vécu au Jurassique inférieur, durant une partie de l'Hettangien et du Sinémurien, il y a entre 199 et 196 Ma (millions d'années), dans l'actuelle Afrique australe[2]. Plusieurs fossiles ont été découverts en 2009. Ils sont répartis en une seule espèce nommée A. celestae. Ce dinosaure a été décrit pour la première fois en 2009 par Adam M. Yates[1] à partir de fossiles découverts à la frontière entre l'Afrique du Sud et le Lesotho dans la formation d'Elliot.
+Aardonyx est un genre éteint de dinosaures appartenant à l'ordre des saurischiens et au sous-ordre des sauropodomorphes. Ces animaux ont vécu au Jurassique inférieur, durant une partie de l'Hettangien et du Sinémurien, il y a entre 199 et 196 Ma (millions d'années), dans l'actuelle Afrique australe. Plusieurs fossiles ont été découverts en 2009. Ils sont répartis en une seule espèce nommée A. celestae. Ce dinosaure a été décrit pour la première fois en 2009 par Adam M. Yates à partir de fossiles découverts à la frontière entre l'Afrique du Sud et le Lesotho dans la formation d'Elliot.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aardonyx a été formé à partir d'un terme de l'afrikaans, aard « terre », et d'un terme de grec ancien, ονυχ « ongle, griffe », ce qui peut s'interpréter par « griffe de la terre »[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aardonyx a été formé à partir d'un terme de l'afrikaans, aard « terre », et d'un terme de grec ancien, ονυχ « ongle, griffe », ce qui peut s'interpréter par « griffe de la terre »,.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa longueur totale est de l'ordre de 6,50 mètres selon Thomas Holtz (2011) pour une masse de près d'une tonne[3]. En 2016, après de nouvelles estimations, il est dit que le dinosaure est long de sept mètres pour une masse d'une demi tonne[2], soit la moitié de la masse donnée par Holtz.
-En raison de la structure de ses membres postérieurs et de sa ceinture pelvienne, Aardonyx se déplaçait normalement de façon bipède, mais il pouvait adopter un déplacement à quatre pattes semblable à celui d'Iguanodon. Il partage certains attributs avec les sauropodes quadrupèdes géants comme Apatosaurus[4].
-Il possède un cou allongé comme les sauropodomorphes menant à une tête de petite taille. Son torse est massif et sa queue est longue[2]. Décrit comme se trouvant entre le sous-ordre, obsolète, des prosauropodes et celui des sauropodes, la description de ses joues permet de confirmer cette phase intermédiaire avec l'absence de joues fléchies qu'on retrouve particulièrement chez les prosauropodes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa longueur totale est de l'ordre de 6,50 mètres selon Thomas Holtz (2011) pour une masse de près d'une tonne. En 2016, après de nouvelles estimations, il est dit que le dinosaure est long de sept mètres pour une masse d'une demi tonne, soit la moitié de la masse donnée par Holtz.
+En raison de la structure de ses membres postérieurs et de sa ceinture pelvienne, Aardonyx se déplaçait normalement de façon bipède, mais il pouvait adopter un déplacement à quatre pattes semblable à celui d'Iguanodon. Il partage certains attributs avec les sauropodes quadrupèdes géants comme Apatosaurus.
+Il possède un cou allongé comme les sauropodomorphes menant à une tête de petite taille. Son torse est massif et sa queue est longue. Décrit comme se trouvant entre le sous-ordre, obsolète, des prosauropodes et celui des sauropodes, la description de ses joues permet de confirmer cette phase intermédiaire avec l'absence de joues fléchies qu'on retrouve particulièrement chez les prosauropodes.
 </t>
         </is>
       </c>
@@ -578,12 +594,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Classification
-Selon son découvreur, Yates, de l'université du Witwatersrand, son squelette incomplet présente les caractéristiques d'un bipède pouvant occasionnellement être quadrupède[2]. Il pourrait donc s'agir d'un intermédiaire entre le sous-ordre obsolète des prosauropodes et celui des sauropodes[1],[2]. À partir d'une analyse phylogénétique réalisée lors de la première description du genre, il le place dans le clade des Anchisauria entre Anchisaurus et Melanorosaurus et à proximité des sauropodes, qui sont tous des quadrupèdes. De nombreuses fonctionnalités du squelette appuient cette relation. Il s'agit notamment de traits dérivés observés sur les vertèbres ainsi que sur le squelette appendiculaire[1].
-Phylogénie
-Cladogramme de l'inventeur du genre, Adam M. Yates en 2009[1] :
-Cladogramme de Blair McPhee et de ses collègues, établi en 2014[5], qui montre le clade des Anchisauria regroupant beaucoup plus de genres, dont Aardonyx :
-Cladogramme un peu différent d'Alejandro Otero et ses collègues en 2015, extrait de leur analyse phylogénétique des saurischiens[6], qui place Aardonyx dans le clade des Sauropodiformes, sous celui des Anchisauria :
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon son découvreur, Yates, de l'université du Witwatersrand, son squelette incomplet présente les caractéristiques d'un bipède pouvant occasionnellement être quadrupède. Il pourrait donc s'agir d'un intermédiaire entre le sous-ordre obsolète des prosauropodes et celui des sauropodes,. À partir d'une analyse phylogénétique réalisée lors de la première description du genre, il le place dans le clade des Anchisauria entre Anchisaurus et Melanorosaurus et à proximité des sauropodes, qui sont tous des quadrupèdes. De nombreuses fonctionnalités du squelette appuient cette relation. Il s'agit notamment de traits dérivés observés sur les vertèbres ainsi que sur le squelette appendiculaire.
 </t>
         </is>
       </c>
@@ -609,13 +626,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Découverte</t>
+          <t>Systématique</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">La découverte de l'espèce par le paléontologue australien Yates et son équipe a été publiée dans la série B des Proceedings of the Royal Society en novembre 2009[1]. Le paléontologue britannique Paul Barrett, du musée d'histoire naturelle de Londres, qui a aidé aux fouilles qui ont abouti à la découverte d'Aardonyx, estime qu'elle « contribue à combler une importante lacune dans nos connaissances sur l'évolution des sauropodes, en montrant comment un animal initialement bipède a pu commencer à acquérir les caractéristiques spécifiques nécessaires pour mener une vie à quatre pattes »[4].
-L'extraction du fossile fut difficile en raison de l'incrustation d'hématite, un minerai de fer dur, autour des orteils du dinosaure[2].
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cladogramme de l'inventeur du genre, Adam M. Yates en 2009 :
+Cladogramme de Blair McPhee et de ses collègues, établi en 2014, qui montre le clade des Anchisauria regroupant beaucoup plus de genres, dont Aardonyx :
+Cladogramme un peu différent d'Alejandro Otero et ses collègues en 2015, extrait de leur analyse phylogénétique des saurischiens, qui place Aardonyx dans le clade des Sauropodiformes, sous celui des Anchisauria :
 </t>
         </is>
       </c>
@@ -641,13 +665,52 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Découverte</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La découverte de l'espèce par le paléontologue australien Yates et son équipe a été publiée dans la série B des Proceedings of the Royal Society en novembre 2009. Le paléontologue britannique Paul Barrett, du musée d'histoire naturelle de Londres, qui a aidé aux fouilles qui ont abouti à la découverte d'Aardonyx, estime qu'elle « contribue à combler une importante lacune dans nos connaissances sur l'évolution des sauropodes, en montrant comment un animal initialement bipède a pu commencer à acquérir les caractéristiques spécifiques nécessaires pour mener une vie à quatre pattes ».
+L'extraction du fossile fut difficile en raison de l'incrustation d'hématite, un minerai de fer dur, autour des orteils du dinosaure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aardonyx</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aardonyx</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Paléobiologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alimentation
-Le dinosaure est un herbivore qui, physiquement, pouvait cueillir, comme les prosauropodes, des feuilles et, comme les sauropodes, pouvait brouter en vrac. Cette façon de manger confirme également le fait qu'il soit un dinosaure intermédiaire entre les prosauropodes et les sauropodes[2].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dinosaure est un herbivore qui, physiquement, pouvait cueillir, comme les prosauropodes, des feuilles et, comme les sauropodes, pouvait brouter en vrac. Cette façon de manger confirme également le fait qu'il soit un dinosaure intermédiaire entre les prosauropodes et les sauropodes.
 </t>
         </is>
       </c>
